--- a/Defect Log.xlsx
+++ b/Defect Log.xlsx
@@ -8,15 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jematanevar\Documents\New Data Rep\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB808820-5E00-4398-BEAD-471DF346824C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8081FE14-B2F7-498A-86DF-CE68D52A9137}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12375" xr2:uid="{073DD6F3-CF00-412D-A626-9DE335390389}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12375" activeTab="4" xr2:uid="{073DD6F3-CF00-412D-A626-9DE335390389}"/>
   </bookViews>
   <sheets>
-    <sheet name="Defect Log-Population" sheetId="1" r:id="rId1"/>
-    <sheet name="Defect Log-Employment" sheetId="4" r:id="rId2"/>
-    <sheet name="Template" sheetId="3" r:id="rId3"/>
-    <sheet name="Defect Types" sheetId="2" r:id="rId4"/>
+    <sheet name="Defect Log-Poverty" sheetId="5" r:id="rId1"/>
+    <sheet name="Defect Log-Population" sheetId="1" r:id="rId2"/>
+    <sheet name="Defect Log-Employment" sheetId="4" r:id="rId3"/>
+    <sheet name="Template" sheetId="3" r:id="rId4"/>
+    <sheet name="Defect Log-Industry" sheetId="6" r:id="rId5"/>
+    <sheet name="Defect Types" sheetId="2" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="56">
   <si>
     <t>Document/ Component Name</t>
   </si>
@@ -172,6 +174,30 @@
   </si>
   <si>
     <t>Datasets should be normalized to follow the same naming conventions.</t>
+  </si>
+  <si>
+    <t>2nd Dropdown</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dropdown label resets to incorrect value when using mode button. </t>
+  </si>
+  <si>
+    <t>Graph</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Graph does not have a range slider. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Toggles buttons seem to work backwards. </t>
+  </si>
+  <si>
+    <t>Dropdowns</t>
+  </si>
+  <si>
+    <t>Review</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dropdowns are missing labels. </t>
   </si>
 </sst>
 </file>
@@ -227,6 +253,22 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{9A5BE84C-69A3-4F48-8AE0-B27E26341616}" name="Table326" displayName="Table326" ref="A1:G1048576" totalsRowShown="0">
+  <autoFilter ref="A1:G1048576" xr:uid="{55F234D9-12F9-4A39-9A0C-4D555293972E}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{878C4E7D-19DE-4D79-95A2-EE589FAE95B5}" name="Document/ Component Name"/>
+    <tableColumn id="2" xr3:uid="{112DFDAD-DAD2-4F03-AFE5-2DBAAC7B881C}" name="Defect Type"/>
+    <tableColumn id="3" xr3:uid="{9EC93593-9489-447D-AA6A-0BB7B5D090D2}" name="Injection Phase"/>
+    <tableColumn id="4" xr3:uid="{DBB0CDE0-7197-44ED-A332-C37998F4393D}" name="Removal Phase"/>
+    <tableColumn id="5" xr3:uid="{E5A8BCEE-D1EF-49DB-A066-87772D95AD4D}" name="Major/Minor Defect"/>
+    <tableColumn id="6" xr3:uid="{87B7188B-147F-4B55-97FC-E714BE27935E}" name="Fix Cost"/>
+    <tableColumn id="7" xr3:uid="{B0AC3B33-5897-4A8B-801D-9DEA479312CF}" name="Defect Description"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{93A1C920-07B6-472C-89A3-9E3DDA681CA3}" name="Table3" displayName="Table3" ref="A1:G1048576" totalsRowShown="0">
   <autoFilter ref="A1:G1048576" xr:uid="{0275536E-BE03-4BFB-BA16-A7EF32570A0E}"/>
   <tableColumns count="7">
@@ -242,7 +284,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8F12B541-B3A4-4728-8F2E-86CD24F7DCEC}" name="Table323" displayName="Table323" ref="A1:G1048576" totalsRowShown="0">
   <autoFilter ref="A1:G1048576" xr:uid="{4D10988F-65DA-4DDA-B5D1-12467464ACB3}"/>
   <tableColumns count="7">
@@ -258,7 +300,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F3DFA87C-32BD-4526-94EB-2AE75E4A8751}" name="Table32" displayName="Table32" ref="A1:G1048576" totalsRowShown="0">
   <autoFilter ref="A1:G1048576" xr:uid="{55F234D9-12F9-4A39-9A0C-4D555293972E}"/>
   <tableColumns count="7">
@@ -274,7 +316,23 @@
 </table>
 </file>
 
-<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00B2FDF6-7D77-4F7A-AFD9-E2268EBEDE7B}" name="Table327" displayName="Table327" ref="A1:G1048576" totalsRowShown="0">
+  <autoFilter ref="A1:G1048576" xr:uid="{55F234D9-12F9-4A39-9A0C-4D555293972E}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{67CBD579-C5F7-4B70-8577-DD31878298DD}" name="Document/ Component Name"/>
+    <tableColumn id="2" xr3:uid="{10EE930E-D5B0-4D86-B5EA-2D14C4D6B119}" name="Defect Type"/>
+    <tableColumn id="3" xr3:uid="{745854D3-13E6-4886-8594-13CC9FADB7CF}" name="Injection Phase"/>
+    <tableColumn id="4" xr3:uid="{C38AD080-2620-4BD8-8868-67D6D2AB929F}" name="Removal Phase"/>
+    <tableColumn id="5" xr3:uid="{2ACFAA7B-C5E4-4919-A5B4-CAE0BFB0D5E5}" name="Major/Minor Defect"/>
+    <tableColumn id="6" xr3:uid="{40067B9B-5233-4F71-BF0A-0AB5303E8679}" name="Fix Cost"/>
+    <tableColumn id="7" xr3:uid="{96AD7B76-54A8-4C0C-A7E2-07C7DDA3E033}" name="Defect Description"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{832B9013-8DE4-4D68-8BBD-5D3F39F52C62}" name="Table4" displayName="Table4" ref="A1:B1048576" totalsRowShown="0">
   <autoFilter ref="A1:B1048576" xr:uid="{8AE70EF7-07DF-4B05-A91B-C3EB5C7EEB85}"/>
   <tableColumns count="2">
@@ -581,11 +639,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A211B0E0-A880-4B36-9DEA-F47BBCC933CA}">
-  <dimension ref="A1:G15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA6CE13A-9B42-4AB0-A1C0-7EF14155A63A}">
+  <sheetPr>
+    <tabColor theme="9"/>
+  </sheetPr>
+  <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -624,324 +685,71 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
         <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="E2" t="s">
         <v>20</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="G2" t="s">
-        <v>21</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
         <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="E3" t="s">
         <v>20</v>
       </c>
       <c r="F3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G3" t="s">
-        <v>22</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
         <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="E4" t="s">
         <v>20</v>
       </c>
       <c r="F4">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5">
-        <v>5</v>
-      </c>
-      <c r="G5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" t="s">
-        <v>28</v>
-      </c>
-      <c r="F6">
-        <v>30</v>
-      </c>
-      <c r="G6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F7">
-        <v>15</v>
-      </c>
-      <c r="G7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E8" t="s">
-        <v>28</v>
-      </c>
-      <c r="F8">
-        <v>10</v>
-      </c>
-      <c r="G8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" t="s">
-        <v>34</v>
-      </c>
-      <c r="E9" t="s">
-        <v>28</v>
-      </c>
-      <c r="F9">
-        <v>2</v>
-      </c>
-      <c r="G9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" t="s">
-        <v>36</v>
-      </c>
-      <c r="E10" t="s">
-        <v>28</v>
-      </c>
-      <c r="F10">
-        <v>20</v>
-      </c>
-      <c r="G10" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" t="s">
-        <v>36</v>
-      </c>
-      <c r="D11" t="s">
-        <v>38</v>
-      </c>
-      <c r="E11" t="s">
-        <v>20</v>
-      </c>
-      <c r="F11">
-        <v>3</v>
-      </c>
-      <c r="G11" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>40</v>
-      </c>
-      <c r="B12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" t="s">
-        <v>38</v>
-      </c>
-      <c r="E12" t="s">
-        <v>20</v>
-      </c>
-      <c r="F12">
-        <v>10</v>
-      </c>
-      <c r="G12" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>40</v>
-      </c>
-      <c r="B13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" t="s">
-        <v>18</v>
-      </c>
-      <c r="D13" t="s">
-        <v>38</v>
-      </c>
-      <c r="E13" t="s">
-        <v>20</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>43</v>
-      </c>
-      <c r="B14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" t="s">
-        <v>18</v>
-      </c>
-      <c r="D14" t="s">
-        <v>38</v>
-      </c>
-      <c r="E14" t="s">
-        <v>20</v>
-      </c>
-      <c r="F14">
-        <v>2</v>
-      </c>
-      <c r="G14" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>45</v>
-      </c>
-      <c r="B15" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" t="s">
-        <v>36</v>
-      </c>
-      <c r="D15" t="s">
-        <v>46</v>
-      </c>
-      <c r="E15" t="s">
-        <v>20</v>
-      </c>
-      <c r="F15">
-        <v>15</v>
-      </c>
-      <c r="G15" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -953,11 +761,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA34E1DA-779E-4DB7-870B-22B924380FA2}">
-  <dimension ref="A1:G1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A211B0E0-A880-4B36-9DEA-F47BBCC933CA}">
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -994,6 +802,328 @@
         <v>6</v>
       </c>
     </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+      <c r="G2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5">
+        <v>5</v>
+      </c>
+      <c r="G5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6">
+        <v>30</v>
+      </c>
+      <c r="G6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7">
+        <v>15</v>
+      </c>
+      <c r="G7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8">
+        <v>10</v>
+      </c>
+      <c r="G8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+      <c r="G9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10">
+        <v>20</v>
+      </c>
+      <c r="G10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11">
+        <v>3</v>
+      </c>
+      <c r="G11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12">
+        <v>10</v>
+      </c>
+      <c r="G12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14">
+        <v>2</v>
+      </c>
+      <c r="G14" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" t="s">
+        <v>46</v>
+      </c>
+      <c r="E15" t="s">
+        <v>20</v>
+      </c>
+      <c r="F15">
+        <v>15</v>
+      </c>
+      <c r="G15" t="s">
+        <v>47</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -1003,11 +1133,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2177B6A2-FFB4-4777-9F52-A13AB6F79678}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA34E1DA-779E-4DB7-870B-22B924380FA2}">
   <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:G1048576"/>
+      <selection activeCell="G1" sqref="A1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1053,11 +1183,140 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2177B6A2-FFB4-4777-9F52-A13AB6F79678}">
+  <sheetPr>
+    <tabColor theme="9"/>
+  </sheetPr>
+  <dimension ref="A1:G1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="36.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.7109375" customWidth="1"/>
+    <col min="6" max="6" width="10" customWidth="1"/>
+    <col min="7" max="7" width="68.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28B38BBB-18C8-4D1B-B188-D9D53FEF44D4}">
+  <sheetPr>
+    <tabColor theme="9"/>
+  </sheetPr>
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="36.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.7109375" customWidth="1"/>
+    <col min="6" max="6" width="10" customWidth="1"/>
+    <col min="7" max="7" width="68.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2">
+        <v>3</v>
+      </c>
+      <c r="G2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C7F56B0-AE89-4615-8DA8-2E5706FDCBAE}">
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Defect Log.xlsx
+++ b/Defect Log.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jematanevar\Documents\New Data Rep\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8081FE14-B2F7-498A-86DF-CE68D52A9137}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83A7B3F9-D99D-46F0-9AB0-1B49BFCDA536}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12375" activeTab="4" xr2:uid="{073DD6F3-CF00-412D-A626-9DE335390389}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12375" firstSheet="1" activeTab="2" xr2:uid="{073DD6F3-CF00-412D-A626-9DE335390389}"/>
   </bookViews>
   <sheets>
     <sheet name="Defect Log-Poverty" sheetId="5" r:id="rId1"/>
     <sheet name="Defect Log-Population" sheetId="1" r:id="rId2"/>
     <sheet name="Defect Log-Employment" sheetId="4" r:id="rId3"/>
-    <sheet name="Template" sheetId="3" r:id="rId4"/>
-    <sheet name="Defect Log-Industry" sheetId="6" r:id="rId5"/>
-    <sheet name="Defect Types" sheetId="2" r:id="rId6"/>
+    <sheet name="Defect Log-Industry" sheetId="6" r:id="rId4"/>
+    <sheet name="Defect Types" sheetId="2" r:id="rId5"/>
+    <sheet name="Template" sheetId="3" r:id="rId6"/>
+    <sheet name="Template (2)" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="58">
   <si>
     <t>Document/ Component Name</t>
   </si>
@@ -198,6 +199,12 @@
   </si>
   <si>
     <t xml:space="preserve">Dropdowns are missing labels. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Legend is shared, but when clicked glaph empties. </t>
+  </si>
+  <si>
+    <t>Although legend is shared, there seem to be inconsistencies with the colors.</t>
   </si>
 </sst>
 </file>
@@ -213,12 +220,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -233,8 +252,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -301,6 +322,33 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00B2FDF6-7D77-4F7A-AFD9-E2268EBEDE7B}" name="Table327" displayName="Table327" ref="A1:G1048576" totalsRowShown="0">
+  <autoFilter ref="A1:G1048576" xr:uid="{55F234D9-12F9-4A39-9A0C-4D555293972E}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{67CBD579-C5F7-4B70-8577-DD31878298DD}" name="Document/ Component Name"/>
+    <tableColumn id="2" xr3:uid="{10EE930E-D5B0-4D86-B5EA-2D14C4D6B119}" name="Defect Type"/>
+    <tableColumn id="3" xr3:uid="{745854D3-13E6-4886-8594-13CC9FADB7CF}" name="Injection Phase"/>
+    <tableColumn id="4" xr3:uid="{C38AD080-2620-4BD8-8868-67D6D2AB929F}" name="Removal Phase"/>
+    <tableColumn id="5" xr3:uid="{2ACFAA7B-C5E4-4919-A5B4-CAE0BFB0D5E5}" name="Major/Minor Defect"/>
+    <tableColumn id="6" xr3:uid="{40067B9B-5233-4F71-BF0A-0AB5303E8679}" name="Fix Cost"/>
+    <tableColumn id="7" xr3:uid="{96AD7B76-54A8-4C0C-A7E2-07C7DDA3E033}" name="Defect Description"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{832B9013-8DE4-4D68-8BBD-5D3F39F52C62}" name="Table4" displayName="Table4" ref="A1:B1048576" totalsRowShown="0">
+  <autoFilter ref="A1:B1048576" xr:uid="{8AE70EF7-07DF-4B05-A91B-C3EB5C7EEB85}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{734F52C2-36A3-4BE8-9511-658D5772259F}" name="Type"/>
+    <tableColumn id="2" xr3:uid="{DC0331CF-B9DB-46B6-AC1F-F79A1534AB05}" name="Description"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F3DFA87C-32BD-4526-94EB-2AE75E4A8751}" name="Table32" displayName="Table32" ref="A1:G1048576" totalsRowShown="0">
   <autoFilter ref="A1:G1048576" xr:uid="{55F234D9-12F9-4A39-9A0C-4D555293972E}"/>
   <tableColumns count="7">
@@ -316,30 +364,19 @@
 </table>
 </file>
 
-<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00B2FDF6-7D77-4F7A-AFD9-E2268EBEDE7B}" name="Table327" displayName="Table327" ref="A1:G1048576" totalsRowShown="0">
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{25F08562-C092-47FF-A537-D8FB5B650080}" name="Table328" displayName="Table328" ref="A1:G1048576" totalsRowShown="0">
   <autoFilter ref="A1:G1048576" xr:uid="{55F234D9-12F9-4A39-9A0C-4D555293972E}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{67CBD579-C5F7-4B70-8577-DD31878298DD}" name="Document/ Component Name"/>
-    <tableColumn id="2" xr3:uid="{10EE930E-D5B0-4D86-B5EA-2D14C4D6B119}" name="Defect Type"/>
-    <tableColumn id="3" xr3:uid="{745854D3-13E6-4886-8594-13CC9FADB7CF}" name="Injection Phase"/>
-    <tableColumn id="4" xr3:uid="{C38AD080-2620-4BD8-8868-67D6D2AB929F}" name="Removal Phase"/>
-    <tableColumn id="5" xr3:uid="{2ACFAA7B-C5E4-4919-A5B4-CAE0BFB0D5E5}" name="Major/Minor Defect"/>
-    <tableColumn id="6" xr3:uid="{40067B9B-5233-4F71-BF0A-0AB5303E8679}" name="Fix Cost"/>
-    <tableColumn id="7" xr3:uid="{96AD7B76-54A8-4C0C-A7E2-07C7DDA3E033}" name="Defect Description"/>
+    <tableColumn id="1" xr3:uid="{BCDEB81F-FAB4-4776-AF06-DEF97C9AC69F}" name="Document/ Component Name"/>
+    <tableColumn id="2" xr3:uid="{D212A0A9-C257-4151-AD38-A89543178441}" name="Defect Type"/>
+    <tableColumn id="3" xr3:uid="{D0EBCA9E-97DE-40AF-A14B-736F605D6720}" name="Injection Phase"/>
+    <tableColumn id="4" xr3:uid="{A917EEBD-F7D0-49C7-A3DB-7BE106F4E0D7}" name="Removal Phase"/>
+    <tableColumn id="5" xr3:uid="{A40D4305-AFC9-42FB-AD8A-B9DB09E63DD5}" name="Major/Minor Defect"/>
+    <tableColumn id="6" xr3:uid="{454FE70F-3730-4168-BCD6-BAF847D91472}" name="Fix Cost"/>
+    <tableColumn id="7" xr3:uid="{8720D694-23F4-4255-97F7-8795CFC5A3FC}" name="Defect Description"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{832B9013-8DE4-4D68-8BBD-5D3F39F52C62}" name="Table4" displayName="Table4" ref="A1:B1048576" totalsRowShown="0">
-  <autoFilter ref="A1:B1048576" xr:uid="{8AE70EF7-07DF-4B05-A91B-C3EB5C7EEB85}"/>
-  <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{734F52C2-36A3-4BE8-9511-658D5772259F}" name="Type"/>
-    <tableColumn id="2" xr3:uid="{DC0331CF-B9DB-46B6-AC1F-F79A1534AB05}" name="Description"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -646,7 +683,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -684,71 +721,71 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="1">
         <v>15</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="1" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="1">
         <v>5</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="1" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="1">
         <v>10</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="1" t="s">
         <v>52</v>
       </c>
     </row>
@@ -765,7 +802,7 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -803,324 +840,324 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="1">
         <v>2</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="1" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="1">
         <v>2</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="1" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="1">
         <v>2</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="1">
         <v>5</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="1" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="1">
         <v>30</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="1" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="1">
         <v>15</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" s="1" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="1">
         <v>10</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" s="1" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="1">
         <v>2</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" s="1" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="A10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="1">
         <v>20</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G10" s="1" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="A11" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="1">
         <v>3</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G11" s="1" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="A12" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="1">
         <v>10</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G12" s="1" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="A13" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="1">
         <v>1</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G13" s="1" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="A14" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="1">
         <v>2</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G14" s="1" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="A15" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="1">
         <v>15</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G15" s="1" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1134,10 +1171,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA34E1DA-779E-4DB7-870B-22B924380FA2}">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="A1:G1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1174,6 +1211,44 @@
         <v>6</v>
       </c>
     </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -1183,6 +1258,144 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28B38BBB-18C8-4D1B-B188-D9D53FEF44D4}">
+  <sheetPr>
+    <tabColor theme="9"/>
+  </sheetPr>
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="36.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.7109375" customWidth="1"/>
+    <col min="6" max="6" width="10" customWidth="1"/>
+    <col min="7" max="7" width="68.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="1">
+        <v>3</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C7F56B0-AE89-4615-8DA8-2E5706FDCBAE}">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="84" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2177B6A2-FFB4-4777-9F52-A13AB6F79678}">
   <sheetPr>
     <tabColor theme="9"/>
@@ -1235,15 +1448,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28B38BBB-18C8-4D1B-B188-D9D53FEF44D4}">
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C707795-8D3B-4EB3-8E3B-2271B771B422}">
   <sheetPr>
     <tabColor theme="9"/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1280,91 +1493,6 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2">
-        <v>3</v>
-      </c>
-      <c r="G2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C7F56B0-AE89-4615-8DA8-2E5706FDCBAE}">
-  <dimension ref="A1:B5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="84" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" t="s">
-        <v>16</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">

--- a/Defect Log.xlsx
+++ b/Defect Log.xlsx
@@ -8,18 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jematanevar\Documents\New Data Rep\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83A7B3F9-D99D-46F0-9AB0-1B49BFCDA536}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21702D29-99CB-4C3A-B0E7-EC8227D6D954}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12375" firstSheet="1" activeTab="2" xr2:uid="{073DD6F3-CF00-412D-A626-9DE335390389}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12375" firstSheet="1" activeTab="3" xr2:uid="{073DD6F3-CF00-412D-A626-9DE335390389}"/>
   </bookViews>
   <sheets>
     <sheet name="Defect Log-Poverty" sheetId="5" r:id="rId1"/>
     <sheet name="Defect Log-Population" sheetId="1" r:id="rId2"/>
     <sheet name="Defect Log-Employment" sheetId="4" r:id="rId3"/>
     <sheet name="Defect Log-Industry" sheetId="6" r:id="rId4"/>
-    <sheet name="Defect Types" sheetId="2" r:id="rId5"/>
-    <sheet name="Template" sheetId="3" r:id="rId6"/>
-    <sheet name="Template (2)" sheetId="7" r:id="rId7"/>
+    <sheet name="Defect Log -Trade" sheetId="7" r:id="rId5"/>
+    <sheet name="Defect Types" sheetId="2" r:id="rId6"/>
+    <sheet name="Template" sheetId="3" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="64">
   <si>
     <t>Document/ Component Name</t>
   </si>
@@ -205,6 +205,24 @@
   </si>
   <si>
     <t>Although legend is shared, there seem to be inconsistencies with the colors.</t>
+  </si>
+  <si>
+    <t>NAICS graph</t>
+  </si>
+  <si>
+    <t>Imports &amp; Exports</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Graphs are missing sliders. </t>
+  </si>
+  <si>
+    <t>Total Flows to El Paso Graph</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Graph is missing slider. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dataset has two values for the same category. </t>
   </si>
 </sst>
 </file>
@@ -338,6 +356,22 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{25F08562-C092-47FF-A537-D8FB5B650080}" name="Table328" displayName="Table328" ref="A1:G1048576" totalsRowShown="0">
+  <autoFilter ref="A1:G1048576" xr:uid="{55F234D9-12F9-4A39-9A0C-4D555293972E}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{BCDEB81F-FAB4-4776-AF06-DEF97C9AC69F}" name="Document/ Component Name"/>
+    <tableColumn id="2" xr3:uid="{D212A0A9-C257-4151-AD38-A89543178441}" name="Defect Type"/>
+    <tableColumn id="3" xr3:uid="{D0EBCA9E-97DE-40AF-A14B-736F605D6720}" name="Injection Phase"/>
+    <tableColumn id="4" xr3:uid="{A917EEBD-F7D0-49C7-A3DB-7BE106F4E0D7}" name="Removal Phase"/>
+    <tableColumn id="5" xr3:uid="{A40D4305-AFC9-42FB-AD8A-B9DB09E63DD5}" name="Major/Minor Defect"/>
+    <tableColumn id="6" xr3:uid="{454FE70F-3730-4168-BCD6-BAF847D91472}" name="Fix Cost"/>
+    <tableColumn id="7" xr3:uid="{8720D694-23F4-4255-97F7-8795CFC5A3FC}" name="Defect Description"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{832B9013-8DE4-4D68-8BBD-5D3F39F52C62}" name="Table4" displayName="Table4" ref="A1:B1048576" totalsRowShown="0">
   <autoFilter ref="A1:B1048576" xr:uid="{8AE70EF7-07DF-4B05-A91B-C3EB5C7EEB85}"/>
   <tableColumns count="2">
@@ -348,7 +382,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F3DFA87C-32BD-4526-94EB-2AE75E4A8751}" name="Table32" displayName="Table32" ref="A1:G1048576" totalsRowShown="0">
   <autoFilter ref="A1:G1048576" xr:uid="{55F234D9-12F9-4A39-9A0C-4D555293972E}"/>
   <tableColumns count="7">
@@ -359,22 +393,6 @@
     <tableColumn id="5" xr3:uid="{7422D0AD-E97F-40CC-8C90-BE2719DACB87}" name="Major/Minor Defect"/>
     <tableColumn id="6" xr3:uid="{085F9535-BEA6-479A-818B-F3D8458FAA52}" name="Fix Cost"/>
     <tableColumn id="7" xr3:uid="{6FA37097-AAD1-46E0-9487-9A97D1337698}" name="Defect Description"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{25F08562-C092-47FF-A537-D8FB5B650080}" name="Table328" displayName="Table328" ref="A1:G1048576" totalsRowShown="0">
-  <autoFilter ref="A1:G1048576" xr:uid="{55F234D9-12F9-4A39-9A0C-4D555293972E}"/>
-  <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{BCDEB81F-FAB4-4776-AF06-DEF97C9AC69F}" name="Document/ Component Name"/>
-    <tableColumn id="2" xr3:uid="{D212A0A9-C257-4151-AD38-A89543178441}" name="Defect Type"/>
-    <tableColumn id="3" xr3:uid="{D0EBCA9E-97DE-40AF-A14B-736F605D6720}" name="Injection Phase"/>
-    <tableColumn id="4" xr3:uid="{A917EEBD-F7D0-49C7-A3DB-7BE106F4E0D7}" name="Removal Phase"/>
-    <tableColumn id="5" xr3:uid="{A40D4305-AFC9-42FB-AD8A-B9DB09E63DD5}" name="Major/Minor Defect"/>
-    <tableColumn id="6" xr3:uid="{454FE70F-3730-4168-BCD6-BAF847D91472}" name="Fix Cost"/>
-    <tableColumn id="7" xr3:uid="{8720D694-23F4-4255-97F7-8795CFC5A3FC}" name="Defect Description"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1173,7 +1191,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA34E1DA-779E-4DB7-870B-22B924380FA2}">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
@@ -1264,8 +1282,8 @@
   </sheetPr>
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:G2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1334,6 +1352,126 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C707795-8D3B-4EB3-8E3B-2271B771B422}">
+  <sheetPr>
+    <tabColor theme="9"/>
+  </sheetPr>
+  <dimension ref="A1:G4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="36.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.7109375" customWidth="1"/>
+    <col min="6" max="6" width="10" customWidth="1"/>
+    <col min="7" max="7" width="68.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="1">
+        <v>5</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="1">
+        <v>5</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C7F56B0-AE89-4615-8DA8-2E5706FDCBAE}">
   <dimension ref="A1:B5"/>
   <sheetViews>
@@ -1395,7 +1533,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2177B6A2-FFB4-4777-9F52-A13AB6F79678}">
   <sheetPr>
     <tabColor theme="9"/>
@@ -1446,57 +1584,4 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C707795-8D3B-4EB3-8E3B-2271B771B422}">
-  <sheetPr>
-    <tabColor theme="9"/>
-  </sheetPr>
-  <dimension ref="A1:G1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="36.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.7109375" customWidth="1"/>
-    <col min="6" max="6" width="10" customWidth="1"/>
-    <col min="7" max="7" width="68.140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
 </file>